--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-335183.5130369536</v>
+        <v>-337796.7993026287</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13089841.0161983</v>
+        <v>13089841.01619829</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>235.8731463559099</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>151.2053252203856</v>
       </c>
       <c r="H2" t="n">
-        <v>263.9986516333536</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>101.4025956585947</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>56.15249807231933</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>114.582837033293</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>322.6521773445566</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>267.7132903626189</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>154.5540398068002</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>151.304100504082</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>71.032674894081</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>196.699784115679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>120.33325546674</v>
+        <v>36.17612299070713</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856136</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>60.11729550774155</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>151.5133592021556</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>164.9367233701421</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>104.8913819999764</v>
       </c>
       <c r="D19" t="n">
-        <v>101.943403544595</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.6028762599951</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>75.9678879306182</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>163.3542162903876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>76.28317487965505</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>54.26758323426815</v>
       </c>
     </row>
     <row r="32">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>44.95889092250177</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1522.499860749039</v>
+        <v>663.0868408173257</v>
       </c>
       <c r="C2" t="n">
-        <v>1153.537343808628</v>
+        <v>663.0868408173257</v>
       </c>
       <c r="D2" t="n">
-        <v>795.2716452018774</v>
+        <v>663.0868408173257</v>
       </c>
       <c r="E2" t="n">
-        <v>795.2716452018774</v>
+        <v>277.2985882190814</v>
       </c>
       <c r="F2" t="n">
-        <v>384.2857404122698</v>
+        <v>270.3530874698779</v>
       </c>
       <c r="G2" t="n">
-        <v>384.2857404122698</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2459.912464098545</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2206.331403362724</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1875.268516019154</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1522.499860749039</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1522.499860749039</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1522.499860749039</v>
+        <v>901.3425442071336</v>
       </c>
     </row>
     <row r="3">
@@ -4395,22 +4395,22 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
         <v>909.2465818694948</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.9516006271326</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C4" t="n">
-        <v>498.0154176992257</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>347.89877828689</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234358</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>1185.132884028471</v>
+        <v>1188.024681071373</v>
       </c>
       <c r="W4" t="n">
-        <v>1185.132884028471</v>
+        <v>898.6075110344121</v>
       </c>
       <c r="X4" t="n">
-        <v>1069.392644600902</v>
+        <v>898.6075110344121</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.6000654573724</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1217.950988797912</v>
+        <v>1819.431341154229</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1450.468824213818</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>1092.203125607067</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>1092.203125607067</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>681.2172208174597</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4601,16 +4601,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.090320773724</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1217.950988797912</v>
+        <v>1819.431341154229</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034352</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844851</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159568</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.89877828689</v>
+        <v>792.054313852967</v>
       </c>
       <c r="C7" t="n">
-        <v>347.89877828689</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1181.1187740259</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>892.0004365297375</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>637.3159483238506</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>347.89877828689</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X7" t="n">
-        <v>347.89877828689</v>
+        <v>1194.495357826737</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.89877828689</v>
+        <v>973.7027786832067</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.889944265938</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.889944265938</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.889944265938</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.889944265938</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1992.424186004858</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1514.8973771788</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.8973771788</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.779039682638</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0945514767509</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6773814397902</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6878305417729</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263522</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356153</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232795</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408864</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.811296842976</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.615197557856</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000541</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.82229605222</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135309</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237292</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093762</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5349,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5370,10 +5370,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981028</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701959</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1267.098614769889</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.109063871871</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.3164847283425</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>800.5007694647277</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2370.227843246303</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2150.626378269244</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1861.551151613442</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1606.866663407555</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1317.449493370594</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,19 +6233,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6254,7 +6254,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6263,13 +6263,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2151.649524353727</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1862.574297697925</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1607.889809492038</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1318.472639455077</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1090.48308855706</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>869.6905094135296</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
@@ -6941,19 +6941,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7084,10 +7084,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7360,7 +7360,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7849,7 +7849,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>319.4183821282443</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883069234</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>260.3423775525684</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>105.2555893216391</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>226.4057028288495</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>74.1962961868816</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>30.48882721876579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>121.5862749664489</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>62.35543909865143</v>
       </c>
       <c r="D19" t="n">
-        <v>46.67206947361737</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012319</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>105.0583980710264</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>149.4264805093821</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>164.3170701178266</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>172.4465594047865</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="F2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="F2" t="n">
-        <v>282501.3098915021</v>
-      </c>
       <c r="G2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="H2" t="n">
         <v>282501.3098915022</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73493.03182917077</v>
+        <v>73493.03182917082</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,31 +26424,31 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707363</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707373</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707366</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707419</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
@@ -26457,7 +26457,7 @@
         <v>14888.28375980083</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980082</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1029639.661909893</v>
+        <v>-1029895.531149304</v>
       </c>
       <c r="C6" t="n">
-        <v>62517.12018102949</v>
+        <v>62517.1201810296</v>
       </c>
       <c r="D6" t="n">
-        <v>62517.12018102949</v>
+        <v>62517.12018102943</v>
       </c>
       <c r="E6" t="n">
-        <v>-333004.0860536587</v>
+        <v>-333038.8239790938</v>
       </c>
       <c r="F6" t="n">
-        <v>174481.3555708876</v>
+        <v>174446.617645452</v>
       </c>
       <c r="G6" t="n">
-        <v>174481.355570888</v>
+        <v>174446.6176454521</v>
       </c>
       <c r="H6" t="n">
-        <v>174481.3555708876</v>
+        <v>174446.617645452</v>
       </c>
       <c r="I6" t="n">
-        <v>174481.3555708876</v>
+        <v>174446.617645452</v>
       </c>
       <c r="J6" t="n">
-        <v>6876.177760905281</v>
+        <v>6841.439835469442</v>
       </c>
       <c r="K6" t="n">
-        <v>174481.3555708877</v>
+        <v>174446.617645452</v>
       </c>
       <c r="L6" t="n">
-        <v>174481.3555708877</v>
+        <v>174446.617645452</v>
       </c>
       <c r="M6" t="n">
-        <v>41874.06184196094</v>
+        <v>41839.32391652522</v>
       </c>
       <c r="N6" t="n">
-        <v>174481.3555708877</v>
+        <v>174446.6176454519</v>
       </c>
       <c r="O6" t="n">
-        <v>149884.5018451513</v>
+        <v>149884.5018451512</v>
       </c>
       <c r="P6" t="n">
-        <v>169312.2198387831</v>
+        <v>169312.219838783</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8606953075707</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>37.0199009290518</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>195.9851452515087</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>111.1268183557442</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>88.89552542839738</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27673,13 +27673,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>102.0178103158502</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>66.19465619041171</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>74.40555488495519</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>135.6255100861528</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>173.03131656279</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>74.32920489499753</v>
+        <v>158.4863373710303</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28564,70 +28564,70 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>163.1438255932933</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>398.1179220955534</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,19 +32555,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,25 +33260,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660945</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,10 +34793,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922432</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839448</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>20.5475811488489</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
